--- a/demo/Import/Book1.xlsx
+++ b/demo/Import/Book1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuoc Thien\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C3BCE9-894F-49AF-B61C-F1A2F0BF1A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{95307ADB-E039-4D55-ADCB-D912B8D25E05}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +38,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Warranty</t>
+  </si>
+  <si>
     <t>Price_New</t>
   </si>
   <si>
@@ -63,130 +65,328 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Sky-Dweller</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;VỎ ĐỒNG HỒ&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Oyster, 42 mm, v&amp;agrave;ng Everose&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;CẤU TR&amp;Uacute;C OYSTER&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Vỏ ch&amp;iacute;nh đơn khối, n&amp;uacute;t vặn nắp lưng v&amp;agrave; n&amp;uacute;t chỉnh l&amp;ecirc;n d&amp;acirc;y&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ĐƯỜNG K&amp;Iacute;NH&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;42 mm&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;CHẤT LIỆU&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;v&amp;agrave;ng Everose 18 ct&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;V&amp;Agrave;NH ĐỒNG HỒ&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;R&amp;atilde;nh, Rolex Ring Command xoay 2 chiều&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;N&amp;Uacute;T VẶN L&amp;Ecirc;N D&amp;Acirc;Y&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Xoắn v&amp;iacute;t, hệ thống chống thấm nước 2 tầng Twinlock&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;MẶT K&amp;Iacute;NH ĐỒNG HỒ&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ngọc b&amp;iacute;ch chống trầy xước, ống k&amp;iacute;nh cyclops tr&amp;ecirc;n hiển thị số ng&amp;agrave;y&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;CHỐNG THẤM NƯỚC&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Khả năng chống thấm nước l&amp;ecirc;n đến mức 100m/330 feet&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;BỘ CHUYỂN ĐỘNG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Perpetual, m&amp;aacute;y cơ, tự l&amp;ecirc;n d&amp;acirc;y, hiển thị 2 m&amp;uacute;i giờ, lịch thường ni&amp;ecirc;n&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;CALIBRE&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;9001, Nh&amp;agrave; sản xuất Rolex&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ĐỘ CH&amp;Iacute;NH X&amp;Aacute;C&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;-2/+2 gi&amp;acirc;y/ng&amp;agrave;y, sau khi lắp đặt ho&amp;agrave;n chỉnh&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;CHỨC NĂNG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kim giờ, kim ph&amp;uacute;t v&amp;agrave; kim gi&amp;acirc;y ch&amp;iacute;nh. Hiển thị 24h tr&amp;ecirc;n đĩa lệch t&amp;acirc;m. M&amp;uacute;i giờ thứ hai. Lịch thường ni&amp;ecirc;n ngẫu nhi&amp;ecirc;n tại điểm 3 giờ v&amp;agrave; t&amp;ugrave;y chỉnh ng&amp;agrave;y nhanh. Hiển thị th&amp;aacute;ng tại 12 khẩu độ v&amp;ograve;ng quanh mặt đồng hồ. Cơ chế ngừng chỉnh để điều chỉnh thời gian ch&amp;iacute;nh x&amp;aacute;c&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;BỘ DAO ĐỘNG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;D&amp;acirc;y t&amp;oacute;c xanh Parachrom thuận từ. C&amp;ocirc;ng nghệ Paraflex chống sốc cao&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;SỰ L&amp;Ecirc;N D&amp;Acirc;Y&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Tự l&amp;ecirc;n d&amp;acirc;y c&amp;oacute;t 2 chiều qua Perpetual rotor&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;DỰ TRỮ NĂNG LƯỢNG&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Xấp xỉ 72 tiếng&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;D&amp;Acirc;Y ĐEO&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Oysterflex&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;CHẤT LIỆU D&amp;Acirc;Y ĐEO&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Lưỡi kim loại linh hoạt dang khu&amp;ocirc;n đ&amp;uacute;c kết hợp với vật liệu đ&amp;agrave;n hồi hiệu năng cao&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;KH&amp;Oacute;A&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kh&amp;oacute;a gập an to&amp;agrave;n Oysterclasp với hệ thống mở rộng Rolex Glidelock&lt;/p&gt;</t>
+    <t>Sky Dweller 326238</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Th&amp;ocirc;ng số kỹ thuật đồng hồ Rolex Sky Dweller 326238 Mặt Số V&amp;agrave;ng&lt;/h2&gt;
+&lt;table&gt;
+ &lt;tbody&gt;
+  &lt;tr&gt;
+   &lt;td&gt;T&amp;igrave;nh trạng&lt;/td&gt;
+   &lt;td&gt;Mới 100%&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Phụ kiện&lt;/td&gt;
+   &lt;td&gt;Hộp, sổ, thẻ bảo h&amp;agrave;nh 2020&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Xuất xứ&lt;/td&gt;
+   &lt;td&gt;Rolex, Thụy Sĩ&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;K&amp;iacute;ch thước&lt;/td&gt;
+   &lt;td&gt;42mm&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Ref&lt;/td&gt;
+   &lt;td&gt;326238-0007&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Movement&lt;/td&gt;
+   &lt;td&gt;Automatic, Cal 9001&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chức năng&lt;/td&gt;
+   &lt;td&gt;Giờ, ph&amp;uacute;t, gi&amp;acirc;y, ng&amp;agrave;y&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chất liệu&lt;/td&gt;
+   &lt;td&gt;V&amp;agrave;ng v&amp;agrave;ng&amp;nbsp;18k&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Dự trữ&lt;/td&gt;
+   &lt;td&gt;72h&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chống nước&lt;/td&gt;
+   &lt;td&gt;100m&lt;/td&gt;
+  &lt;/tr&gt;
+ &lt;/tbody&gt;
+&lt;/table&gt;</t>
   </si>
   <si>
     <t>Đồng hồ Nam</t>
   </si>
   <si>
-    <t>RL`</t>
+    <t>RL</t>
   </si>
   <si>
     <t>Thụy Sĩ</t>
+  </si>
+  <si>
+    <t>Rolex Submariner 126613LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table&gt;
+ &lt;tbody&gt;
+  &lt;tr&gt;
+   &lt;td&gt;T&amp;igrave;nh trạng&lt;/td&gt;
+   &lt;td&gt;Mới&amp;nbsp;100%&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Phụ kiện&lt;/td&gt;
+   &lt;td&gt;Hộp,&amp;nbsp;sổ,&amp;nbsp;thẻ bảo h&amp;agrave;nh 2020&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;K&amp;iacute;ch thước&lt;/td&gt;
+   &lt;td&gt;41mm&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Xuất Xứ&lt;/td&gt;
+   &lt;td&gt;Rolex -Thụy Sĩ&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Ref&lt;/td&gt;
+   &lt;td&gt;126613LB-0002&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Movement&lt;/td&gt;
+   &lt;td&gt;Automatic, Cal 3235&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chất liệu&lt;/td&gt;
+   &lt;td&gt;V&amp;agrave;ng v&amp;agrave;ng&amp;nbsp;18k, th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chức năng&lt;/td&gt;
+   &lt;td&gt;Ng&amp;agrave;y, giờ, ph&amp;uacute;t, gi&amp;acirc;y.&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Dự trữ&lt;/td&gt;
+   &lt;td&gt;70h&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chống nước&lt;/td&gt;
+   &lt;td&gt;300m&lt;/td&gt;
+  &lt;/tr&gt;
+ &lt;/tbody&gt;
+&lt;/table&gt;
+</t>
+  </si>
+  <si>
+    <t>Rolex Yacht-Master II 116688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table&gt;
+ &lt;tbody&gt;
+  &lt;tr&gt;
+   &lt;td&gt;T&amp;igrave;nh trạng&lt;/td&gt;
+   &lt;td&gt;&amp;nbsp;Mới 100%&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Phụ kiện&lt;/td&gt;
+   &lt;td&gt;Hộp, sổ, thẻ bảo h&amp;agrave;nh 2020&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;K&amp;iacute;ch thước mặt, Size&lt;/td&gt;
+   &lt;td&gt;44mm&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Xuất xứ&lt;/td&gt;
+   &lt;td&gt;Rolex - Thụy Sĩ&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Ref&lt;/td&gt;
+   &lt;td&gt;116688&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Movement&lt;/td&gt;
+   &lt;td&gt;Automatic, cal.4161&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chất liệu&lt;/td&gt;
+   &lt;td&gt;V&amp;agrave;ng v&amp;agrave;ng 18k&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+   &lt;td&gt;Chức năng&lt;/td&gt;
+   &lt;td&gt;Giờ, ph&amp;uacute;t, gi&amp;acirc;y, đếm ngược 10 ph&amp;uacute;t&lt;/td&gt;
+  &lt;/tr&gt;
+ &lt;/tbody&gt;
+&lt;/table&gt;
+</t>
+  </si>
+  <si>
+    <t>Jacques Lemans JL-1-1846E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;TH&amp;Ocirc;NG SỐ KỸ THUẬT&lt;/p&gt;
+&lt;p&gt;Đường k&amp;iacute;nh mặt&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;42 mm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chống nước&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;10 ATM&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chất liệu mặt&lt;/p&gt;
+&lt;p&gt;hardened crystex crystal (K&amp;iacute;nh cứng )&lt;/p&gt;
+&lt;p&gt;Năng lượng sử dụng&lt;/p&gt;
+&lt;p&gt;Automatic (Cơ tự động)&lt;/p&gt;
+&lt;p&gt;Size d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;21 mm&lt;/p&gt;
+&lt;p&gt;Chất liệu d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/p&gt;
+&lt;p&gt;Chất liệu vỏ&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/p&gt;
+&lt;p&gt;Kiểu d&amp;aacute;ng&lt;/p&gt;
+&lt;p&gt;Nam&lt;/p&gt;
+&lt;p&gt;Xuất xứ&lt;/p&gt;
+&lt;p&gt;&amp;Aacute;o&lt;/p&gt;
+&lt;p&gt;Chế độ bảo h&amp;agrave;nh&lt;/p&gt;
+&lt;p&gt;Bảo h&amp;agrave;nh quốc tế&amp;nbsp;&lt;strong&gt;01&lt;/strong&gt;&amp;nbsp;năm&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>Áo</t>
+  </si>
+  <si>
+    <t>Jacques Lemans JL-N-207C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;TH&amp;Ocirc;NG SỐ KỸ THUẬT&lt;/p&gt;
+&lt;p&gt;Đường k&amp;iacute;nh mặt&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;38 mm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chống nước&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;5 ATM&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chất liệu mặt&lt;/p&gt;
+&lt;p&gt;perspex ( K&amp;iacute;nh cứng chịu lực )&lt;/p&gt;
+&lt;p&gt;Năng lượng sử dụng&lt;/p&gt;
+&lt;p&gt;Cơ l&amp;ecirc;n c&amp;oacute;t bằng tay&lt;/p&gt;
+&lt;p&gt;Size d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;20 mm&lt;/p&gt;
+&lt;p&gt;Chất liệu d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/p&gt;
+&lt;p&gt;Chất liệu vỏ&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/p&gt;
+&lt;p&gt;Kiểu d&amp;aacute;ng&lt;/p&gt;
+&lt;p&gt;Nam&lt;/p&gt;
+&lt;p&gt;Xuất xứ&lt;/p&gt;
+&lt;p&gt;&amp;Aacute;o&lt;/p&gt;
+&lt;p&gt;Chế độ bảo h&amp;agrave;nh&lt;/p&gt;
+&lt;p&gt;Bảo h&amp;agrave;nh quốc tế 1 năm&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Jacques Lemans JL-1-1654.2ZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Đường k&amp;iacute;nh mặt&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;40 mm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chống nước&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;10 ATM&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chất liệu mặt&lt;/p&gt;
+&lt;p&gt;Krysterna crystal ( k&amp;iacute;nh cứng )&lt;/p&gt;
+&lt;p&gt;Năng lượng sử dụng&lt;/p&gt;
+&lt;p&gt;Quartz/Pin&lt;/p&gt;
+&lt;p&gt;Size d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Chất liệu d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;D&amp;acirc;y da ch&amp;iacute;nh h&amp;atilde;ng&lt;/p&gt;
+&lt;p&gt;Chất liệu vỏ&lt;/p&gt;
+&lt;p&gt;Stainless Steel&lt;/p&gt;
+&lt;p&gt;Kiểu d&amp;aacute;ng&lt;/p&gt;
+&lt;p&gt;Đồng hồ Nam&lt;/p&gt;
+&lt;p&gt;Xuất xứ&lt;/p&gt;
+&lt;p&gt;&amp;Aacute;o&lt;/p&gt;
+&lt;p&gt;Chế độ bảo h&amp;agrave;nh&lt;/p&gt;
+&lt;p&gt;Bảo h&amp;agrave;nh quốc tế 1 năm&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Jacques Lemans JL-1-1797B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;a href="javascript://"&gt;37 mm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chống nước&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;10 ATM&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chất liệu mặt&lt;/p&gt;
+&lt;p&gt;hardened crystex crystal (K&amp;iacute;nh cứng )&lt;/p&gt;
+&lt;p&gt;Năng lượng sử dụng&lt;/p&gt;
+&lt;p&gt;Quartz (Điện tử)&lt;/p&gt;
+&lt;p&gt;Size d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;18 mm&lt;/p&gt;
+&lt;p&gt;Chất liệu d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ + ceramic&lt;/p&gt;
+&lt;p&gt;Chất liệu vỏ&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ , đ&amp;iacute;nh đ&amp;aacute;&lt;/p&gt;
+&lt;p&gt;Kiểu d&amp;aacute;ng&lt;/p&gt;
+&lt;p&gt;Nữ&lt;/p&gt;
+&lt;p&gt;Xuất xứ&lt;/p&gt;
+&lt;p&gt;&amp;Aacute;o&lt;/p&gt;
+&lt;p&gt;Chế độ bảo h&amp;agrave;nh&lt;/p&gt;
+&lt;p&gt;Bảo h&amp;agrave;nh quốc tế&amp;nbsp;&lt;strong&gt;01&lt;/strong&gt;&amp;nbsp;năm&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Đồng hồ Nữ</t>
+  </si>
+  <si>
+    <t>Jacques Lemans JL-N-216E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;30 mm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chống nước&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;5 ATM&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chất liệu mặt&lt;/p&gt;
+&lt;p&gt;perspex ( K&amp;iacute;nh cứng chịu lực )&lt;/p&gt;
+&lt;p&gt;Năng lượng sử dụng&lt;/p&gt;
+&lt;p&gt;Quartz (Điện tử)&lt;/p&gt;
+&lt;p&gt;Size d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;16 mm&lt;/p&gt;
+&lt;p&gt;Chất liệu d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/p&gt;
+&lt;p&gt;Chất liệu vỏ&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ&lt;/p&gt;
+&lt;p&gt;Kiểu d&amp;aacute;ng&lt;/p&gt;
+&lt;p&gt;Nữ&lt;/p&gt;
+&lt;p&gt;Xuất xứ&lt;/p&gt;
+&lt;p&gt;&amp;Aacute;o&lt;/p&gt;
+&lt;p&gt;Chế độ bảo h&amp;agrave;nh&lt;/p&gt;
+&lt;p&gt;Bảo h&amp;agrave;nh quốc tế&amp;nbsp;&lt;strong&gt;02&lt;/strong&gt;&amp;nbsp;năm&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>Jacques Lemans JL-1-1841ZC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;TH&amp;Ocirc;NG SỐ KỸ THUẬT&lt;/p&gt;
+&lt;p&gt;Đường k&amp;iacute;nh mặt&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;37 mm&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chống nước&lt;/p&gt;
+&lt;p&gt;&lt;a href="javascript://"&gt;10 ATM&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;Chất liệu mặt&lt;/p&gt;
+&lt;p&gt;hardened crystex crystal (K&amp;iacute;nh cứng )&lt;/p&gt;
+&lt;p&gt;Năng lượng sử dụng&lt;/p&gt;
+&lt;p&gt;Quartz (Điện tử)&lt;/p&gt;
+&lt;p&gt;Size d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;18 mm&lt;/p&gt;
+&lt;p&gt;Chất liệu d&amp;acirc;y&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ mạ PVD&lt;/p&gt;
+&lt;p&gt;Chất liệu vỏ&lt;/p&gt;
+&lt;p&gt;Th&amp;eacute;p kh&amp;ocirc;ng gỉ mạ PVD , đ&amp;iacute;nh đ&amp;aacute;&lt;/p&gt;
+&lt;p&gt;Kiểu d&amp;aacute;ng&lt;/p&gt;
+&lt;p&gt;Nữ&lt;/p&gt;
+&lt;p&gt;Xuất xứ&lt;/p&gt;
+&lt;p&gt;&amp;Aacute;o&lt;/p&gt;
+&lt;p&gt;Chế độ bảo h&amp;agrave;nh&lt;/p&gt;
+&lt;p&gt;Bảo h&amp;agrave;nh quốc tế&amp;nbsp;&lt;strong&gt;02&lt;/strong&gt;&amp;nbsp;năm&lt;/p&gt;
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,14 +418,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,7 +483,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -272,7 +495,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -319,23 +542,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -371,23 +577,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,20 +728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89253A0A-2F64-4884-B5F2-E3755DC02934}">
-  <dimension ref="A1:L72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,216 +774,328 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1329990000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>132999000</v>
-      </c>
-      <c r="D2">
-        <v>320</v>
-      </c>
-      <c r="F2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="3">
         <v>44177</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>14</v>
+    <row r="3" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>420000000</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44157</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1072000000</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>43842</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>16</v>
+    <row r="5" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>100200000</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>44170</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>17</v>
+    <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>100120000</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>44192</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>18</v>
+    <row r="7" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>40000000</v>
+      </c>
+      <c r="D7">
+        <v>132</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>43831</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>19</v>
+    <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>444000000</v>
+      </c>
+      <c r="D8">
+        <v>98</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43842</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>20</v>
+    <row r="9" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>5777000000</v>
+      </c>
+      <c r="D9">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44177</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>5777000000</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44177</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>